--- a/CV_Data_HossainMJ.xlsx
+++ b/CV_Data_HossainMJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pagedownCV-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4F0FCC-91FF-49B0-A769-EA3222107D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88606ABA-D378-4CAF-BEEF-D24E15EF6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="700">
   <si>
     <t>type</t>
   </si>
@@ -2228,6 +2228,21 @@
   </si>
   <si>
     <t>The purpose of this course is to provide a practical introduction to the programming language R for researchers in any field.</t>
+  </si>
+  <si>
+    <t>As the Founder &amp; Executive Director of CHIRAL Bangladesh, I lead strategic initiatives and oversee operations to drive innovation, research, and actionable learning in the field of health within Bangladesh.</t>
+  </si>
+  <si>
+    <t>As the Founder &amp; Management Lead of CHIRAL Bangladesh, I drive the organization's vision, strategy, and day-to-day operations, fostering innovation, research, action, and learning within the healthcare sector in Bangladesh.</t>
+  </si>
+  <si>
+    <t>As a former Research Intern at the Health Systems and Population Health Studies Division of the International Centre for Diarrhoeal Disease Research, Bangladesh, I actively contributed to research projects focused on enhancing health systems and improving population health, gaining valuable experience and insights in the field.</t>
+  </si>
+  <si>
+    <t>In my previous role as a Data Enumerator at the School of Allied Health, Curtin University, I was responsible for collecting and recording data pertinent to research projects within the allied health field, supporting academic endeavors and contributing to the advancement of knowledge in healthcare.</t>
+  </si>
+  <si>
+    <t>In my prior capacity as a Team Member of Bio-Bio-1, a Bioinformatics Research Discussion Group, I collaborated with peers to engage in in-depth discussions, share insights, and explore emerging trends and challenges in the field of bioinformatics research, fostering a dynamic environment for knowledge exchange and academic growth.</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2295,6 +2310,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7251,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB3C6F4-0C9A-4595-B357-8E79838155B7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7266,7 +7284,7 @@
     <col min="6" max="16384" width="15.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>648</v>
       </c>
@@ -7286,7 +7304,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>637</v>
       </c>
@@ -7302,8 +7320,12 @@
       <c r="E2" s="5" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>654</v>
       </c>
@@ -7319,8 +7341,11 @@
       <c r="E3" s="5" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>639</v>
       </c>
@@ -7336,8 +7361,11 @@
       <c r="E4" s="5" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>660</v>
       </c>
@@ -7353,8 +7381,11 @@
       <c r="E5" s="5" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="8" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>662</v>
       </c>
@@ -7369,6 +7400,9 @@
       </c>
       <c r="E6" s="5" t="s">
         <v>664</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -7484,7 +7518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64685704-FD9C-4EB8-875C-3B5526AE5C23}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/CV_Data_HossainMJ.xlsx
+++ b/CV_Data_HossainMJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88606ABA-D378-4CAF-BEEF-D24E15EF6B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3866A1CB-045F-4E2A-9591-288BF668D9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cv_entries" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="714">
   <si>
     <t>type</t>
   </si>
@@ -2215,21 +2215,12 @@
     <t>Reproducible Research</t>
   </si>
   <si>
-    <t>with Quarto and R Markdown (bookdown, xaringan, pagedown) + LaTeX + HTML</t>
-  </si>
-  <si>
     <t>Web Development</t>
   </si>
   <si>
-    <t>R for Research</t>
-  </si>
-  <si>
     <t>2022--Present</t>
   </si>
   <si>
-    <t>The purpose of this course is to provide a practical introduction to the programming language R for researchers in any field.</t>
-  </si>
-  <si>
     <t>As the Founder &amp; Executive Director of CHIRAL Bangladesh, I lead strategic initiatives and oversee operations to drive innovation, research, and actionable learning in the field of health within Bangladesh.</t>
   </si>
   <si>
@@ -2243,6 +2234,57 @@
   </si>
   <si>
     <t>In my prior capacity as a Team Member of Bio-Bio-1, a Bioinformatics Research Discussion Group, I collaborated with peers to engage in in-depth discussions, share insights, and explore emerging trends and challenges in the field of bioinformatics research, fostering a dynamic environment for knowledge exchange and academic growth.</t>
+  </si>
+  <si>
+    <t>[Easystats for Biomedical Researchers](https://chiraltraining.github.io/easystats/)</t>
+  </si>
+  <si>
+    <t>This workshop is designed to empower biomedical researchers with the skills and knowledge needed to conduct statistical analyses with ease using R.</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>scikit‑learn, PyCaret, Dask, PySpark</t>
+  </si>
+  <si>
+    <t>GIS &amp; Remote Sensing</t>
+  </si>
+  <si>
+    <t>ArcGIS, Geopandas, Xarray, Giovani, Google Earth Engiine</t>
+  </si>
+  <si>
+    <t>Analytics Softwares</t>
+  </si>
+  <si>
+    <t>SPSS, PowerBI, Microsoft Excel</t>
+  </si>
+  <si>
+    <t>Survey Tools</t>
+  </si>
+  <si>
+    <t>RedCap, KoboToolBox, EpiCollect, Google Forms</t>
+  </si>
+  <si>
+    <t>Academic Writing Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Microsoft Word, LaTeX, Mendeley, Zotero</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>BioPython, Bioconductor, BioPandas, Galaxy, NGS, RNASeq, ssRNASeq</t>
+  </si>
+  <si>
+    <t>Quarto and R Markdown (bookdown, xaringan, pagedown) + LaTeX + HTML</t>
+  </si>
+  <si>
+    <t>Miscellaneous Skills</t>
+  </si>
+  <si>
+    <t>UNIX, RStudio, Jupyter, VSCode, Rmarkdown, Quarto, Version Control(Git), Web Scraping, APIs</t>
   </si>
 </sst>
 </file>
@@ -7054,10 +7096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D91EF5-A84D-4224-9186-769BE0E4AFAC}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7084,18 +7126,74 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B3" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B6" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>709</v>
+      </c>
+      <c r="B7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B9" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>690</v>
+      </c>
+      <c r="B10" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B11" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -7271,7 +7369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB3C6F4-0C9A-4595-B357-8E79838155B7}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -7321,7 +7419,7 @@
         <v>653</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G2"/>
     </row>
@@ -7342,7 +7440,7 @@
         <v>673</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7362,7 +7460,7 @@
         <v>686</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7382,7 +7480,7 @@
         <v>685</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,7 +7500,7 @@
         <v>664</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -7516,10 +7614,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64685704-FD9C-4EB8-875C-3B5526AE5C23}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7563,7 +7661,7 @@
         <v>670</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="D2">
         <v>2022</v>
@@ -7572,122 +7670,10 @@
         <v>2023</v>
       </c>
       <c r="F2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>681</v>
-      </c>
-      <c r="B3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>681</v>
-      </c>
-      <c r="B4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>681</v>
-      </c>
-      <c r="B6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B7" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>681</v>
-      </c>
-      <c r="B8" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>681</v>
-      </c>
-      <c r="B9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>681</v>
-      </c>
-      <c r="B10" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>681</v>
-      </c>
-      <c r="B11" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>681</v>
-      </c>
-      <c r="B12" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>681</v>
-      </c>
-      <c r="B13" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>681</v>
-      </c>
-      <c r="B14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>681</v>
-      </c>
-      <c r="B15" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>681</v>
-      </c>
-      <c r="B16" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
